--- a/src/main/resources/TablasBingo.xlsx
+++ b/src/main/resources/TablasBingo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="6">
   <si>
     <t/>
   </si>
@@ -47,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -150,6 +150,15 @@
       <sz val="18.0"/>
       <i val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="20.0"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <sz val="18.0"/>
+      <i val="true"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -234,7 +243,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1788">
+  <cellXfs count="2380">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7271,6 +7280,2290 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true" applyFill="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7534,2024 +9827,2024 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1787" t="s">
+      <c r="A1" s="2379" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1787"/>
-      <c r="C1" s="1787"/>
-      <c r="D1" s="1787" t="s">
+      <c r="B1" s="2379"/>
+      <c r="C1" s="2379"/>
+      <c r="D1" s="2379" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1787" t="s">
+      <c r="E1" s="2379" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1786" t="n">
+      <c r="A2" s="2378" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B2" s="2378" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C2" s="2378" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D2" s="2378" t="n">
         <v>72.0</v>
       </c>
-      <c r="B2" s="1786" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C2" s="1786" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D2" s="1786" t="n">
+      <c r="E2" s="2378" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F2" s="1793" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2378" t="n">
         <v>2.0</v>
       </c>
-      <c r="E2" s="1786" t="n">
+      <c r="B3" s="2378" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C3" s="2378" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D3" s="2378" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E3" s="2378" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="F3" s="1799" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2378" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B4" s="2378" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C4" s="1802" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2378" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2378" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F4" s="1805" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2378" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B5" s="2378" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C5" s="2378" t="n">
         <v>39.0</v>
       </c>
-      <c r="F2" s="1201" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1786" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="B3" s="1786" t="n">
+      <c r="D5" s="2378" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E5" s="2378" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F5" s="1811" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2378" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B6" s="2378" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C6" s="2378" t="n">
         <v>23.0</v>
       </c>
-      <c r="C3" s="1786" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D3" s="1786" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="E3" s="1786" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="F3" s="1207" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1786" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B4" s="1786" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="C4" s="1210" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1786" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="E4" s="1786" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="F4" s="1213" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1786" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="B5" s="1786" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="C5" s="1786" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D5" s="1786" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E5" s="1786" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="F5" s="1219" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1786" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B6" s="1786" t="n">
+      <c r="D6" s="2378" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E6" s="2378" t="n">
         <v>60.0</v>
       </c>
-      <c r="C6" s="1786" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D6" s="1786" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E6" s="1786" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F6" s="1225" t="s">
+      <c r="F6" s="1817" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1787" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1787" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1787" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1787" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1787" t="s">
-        <v>3</v>
+      <c r="A7" s="1818" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1819" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1820" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1821" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1822" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1786" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B8" s="1786" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="C8" s="1786" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D8" s="1786" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E8" s="1786" t="n">
-        <v>49.0</v>
+      <c r="A8" s="1823" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1824" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1825" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1826" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1827" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1786" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B9" s="1786" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C9" s="1786" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D9" s="1786" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="1786" t="n">
-        <v>16.0</v>
+      <c r="A9" s="1828" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1829" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1830" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1831" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1832" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1786" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B10" s="1786" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="C10" s="1243" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1786" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="E10" s="1786" t="n">
-        <v>37.0</v>
+      <c r="A10" s="1833" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1834" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1835" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1836" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1837" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1786" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B11" s="1786" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="C11" s="1786" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D11" s="1786" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="E11" s="1786" t="n">
-        <v>28.0</v>
+      <c r="A11" s="1838" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1839" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1840" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1841" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1842" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1786" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="B12" s="1786" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="C12" s="1786" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="D12" s="1786" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E12" s="1786" t="n">
-        <v>66.0</v>
+      <c r="A12" s="1843" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1844" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1845" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1846" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1847" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1787" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1787" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1787" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1787" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1787" t="s">
-        <v>3</v>
+      <c r="A13" s="1848" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1849" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1850" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1851" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1852" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1786" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B14" s="1786" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="C14" s="1786" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D14" s="1786" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="E14" s="1786" t="n">
-        <v>21.0</v>
+      <c r="A14" s="1853" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1854" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1855" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1856" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1857" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1786" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B15" s="1786" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C15" s="1786" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="D15" s="1786" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E15" s="1786" t="n">
-        <v>54.0</v>
+      <c r="A15" s="1858" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1859" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1860" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1861" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1862" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1786" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="B16" s="1786" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="C16" s="1273" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1786" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="E16" s="1786" t="n">
-        <v>8.0</v>
+      <c r="A16" s="1863" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1864" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1865" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1866" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1867" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1786" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="B17" s="1786" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="C17" s="1786" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D17" s="1786" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="E17" s="1786" t="n">
-        <v>57.0</v>
+      <c r="A17" s="1868" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1869" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1870" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1871" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1872" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1786" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B18" s="1786" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="C18" s="1786" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D18" s="1786" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E18" s="1786" t="n">
-        <v>68.0</v>
+      <c r="A18" s="1873" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1874" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1875" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1876" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1877" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1286" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1288" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1289" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1290" t="s">
+      <c r="A19" s="1878" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1879" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1880" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1881" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1882" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1291" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1293" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1294" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1295" t="s">
+      <c r="A20" s="1883" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1884" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1885" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1886" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1887" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1298" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1299" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1300" t="s">
+      <c r="A21" s="1888" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1889" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1890" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1891" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1892" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1301" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1302" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1303" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1304" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1305" t="s">
+      <c r="A22" s="1893" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1894" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1895" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1896" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1897" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1306" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1308" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1310" t="s">
+      <c r="A23" s="1898" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1899" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1900" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1901" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1902" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1311" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1312" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1313" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1314" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1315" t="s">
+      <c r="A24" s="1903" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1904" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1905" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1906" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1907" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1316" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1317" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1319" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1320" t="s">
+      <c r="A25" s="1908" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1909" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1910" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1911" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1912" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1321" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1323" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1324" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1325" t="s">
+      <c r="A26" s="1913" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1914" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1915" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1916" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1917" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1326" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1327" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1328" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1329" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1330" t="s">
+      <c r="A27" s="1918" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1919" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1920" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1921" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1922" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1333" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1334" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1335" t="s">
+      <c r="A28" s="1923" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1924" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1925" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1926" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1927" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1336" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1338" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1339" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1340" t="s">
+      <c r="A29" s="1928" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1929" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1930" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1931" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1932" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1341" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1343" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1344" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1345" t="s">
+      <c r="A30" s="1933" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1934" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1935" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1936" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1937" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1346" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1348" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1349" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1350" t="s">
+      <c r="A31" s="1938" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1939" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1940" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1941" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1942" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1351" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1353" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1354" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1355" t="s">
+      <c r="A32" s="1943" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1944" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1945" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1946" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1947" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1356" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1357" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1358" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1359" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1360" t="s">
+      <c r="A33" s="1948" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1949" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1950" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1951" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1952" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1361" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1362" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1363" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1364" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1365" t="s">
+      <c r="A34" s="1953" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1954" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1955" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1956" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1957" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1366" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1367" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1368" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1369" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1370" t="s">
+      <c r="A35" s="1958" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1959" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1960" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1961" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1962" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1371" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1372" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1373" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1374" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1375" t="s">
+      <c r="A36" s="1963" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1964" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1965" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1966" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1967" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1376" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1377" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1378" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1379" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1380" t="s">
+      <c r="A37" s="1968" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1969" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1970" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1971" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1972" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1381" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1382" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1383" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1384" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1385" t="s">
+      <c r="A38" s="1973" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1974" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1975" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1976" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1977" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1386" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1387" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1388" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1389" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1390" t="s">
+      <c r="A39" s="1978" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1979" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1980" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1981" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1982" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1391" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1392" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1393" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1394" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1395" t="s">
+      <c r="A40" s="1983" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1984" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1985" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1986" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1987" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1396" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1397" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1398" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1400" t="s">
+      <c r="A41" s="1988" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1989" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1990" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1991" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1992" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1401" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1403" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1405" t="s">
+      <c r="A42" s="1993" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1994" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1995" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1996" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1997" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1406" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1407" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1408" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1409" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1410" t="s">
+      <c r="A43" s="1998" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1999" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2000" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2001" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2002" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1411" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1413" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1414" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1415" t="s">
+      <c r="A44" s="2003" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2004" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2005" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2006" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2007" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1416" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1417" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1418" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1419" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1420" t="s">
+      <c r="A45" s="2008" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2009" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2010" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2011" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2012" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1421" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1422" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1423" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1424" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1425" t="s">
+      <c r="A46" s="2013" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2014" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2015" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2016" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2017" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1426" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1428" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1429" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1430" t="s">
+      <c r="A47" s="2018" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2019" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2020" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2021" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2022" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1431" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1433" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1434" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1435" t="s">
+      <c r="A48" s="2023" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2024" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2025" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2026" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2027" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1436" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1437" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1438" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1439" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1440" t="s">
+      <c r="A49" s="2028" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2029" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2030" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2031" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2032" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1441" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1442" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1443" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1444" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1445" t="s">
+      <c r="A50" s="2033" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2034" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2035" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2036" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2037" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1446" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1447" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1448" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1449" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1450" t="s">
+      <c r="A51" s="2038" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2039" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2040" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2041" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2042" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1451" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1452" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1453" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1454" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1455" t="s">
+      <c r="A52" s="2043" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2044" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2045" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2046" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2047" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1456" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1457" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1458" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1459" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1460" t="s">
+      <c r="A53" s="2048" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2049" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2050" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2051" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2052" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1461" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1462" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1463" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1464" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1465" t="s">
+      <c r="A54" s="2053" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2054" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2055" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2056" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2057" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1466" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1467" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1468" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1469" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1470" t="s">
+      <c r="A55" s="2058" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2059" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2060" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2061" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2062" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1471" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1472" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1473" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1474" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1475" t="s">
+      <c r="A56" s="2063" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2064" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2065" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2066" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2067" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1476" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1477" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1478" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1479" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1480" t="s">
+      <c r="A57" s="2068" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2069" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2070" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2071" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2072" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1481" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1482" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1483" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1484" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1485" t="s">
+      <c r="A58" s="2073" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2074" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2075" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2076" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2077" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1486" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1487" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="1488" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1489" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1490" t="s">
+      <c r="A59" s="2078" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2079" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2080" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2081" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2082" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1491" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1492" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1493" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1494" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1495" t="s">
+      <c r="A60" s="2083" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2084" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2085" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2086" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2087" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1496" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1497" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1498" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1499" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1500" t="s">
+      <c r="A61" s="2088" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2089" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2090" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2091" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2092" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1501" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1502" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1503" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1504" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1505" t="s">
+      <c r="A62" s="2093" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2094" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2095" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2096" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2097" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1506" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1507" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1508" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1509" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1510" t="s">
+      <c r="A63" s="2098" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2099" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2101" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2102" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1511" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1512" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1513" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1514" t="s">
+      <c r="A64" s="2103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2105" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2106" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1515" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1517" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1518" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1519" t="s">
+      <c r="A65" s="2107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2111" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1520" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1521" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1522" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1523" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1524" t="s">
+      <c r="A66" s="2112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2115" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2116" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1525" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1527" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1528" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1529" t="s">
+      <c r="A67" s="2117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2121" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1530" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1531" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1532" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1533" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1534" t="s">
+      <c r="A68" s="2122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2126" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1535" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1536" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1537" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1538" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1539" t="s">
+      <c r="A69" s="2127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2130" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2131" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1540" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1541" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1542" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1543" t="s">
+      <c r="A70" s="2132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2134" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2135" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1544" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1546" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1547" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1548" t="s">
+      <c r="A71" s="2136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2139" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2140" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1549" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1550" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1551" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1552" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1553" t="s">
+      <c r="A72" s="2141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2145" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1554" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1555" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1556" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1557" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1558" t="s">
+      <c r="A73" s="2146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2149" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2150" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1559" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1560" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1561" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1562" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1563" t="s">
+      <c r="A74" s="2151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2154" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2155" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1564" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1565" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1566" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1567" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1568" t="s">
+      <c r="A75" s="2156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2159" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2160" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1569" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1570" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1571" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1572" t="s">
+      <c r="A76" s="2161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2163" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2164" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1573" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1574" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1575" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1576" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1577" t="s">
+      <c r="A77" s="2165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2168" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2169" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1578" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1579" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1580" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1581" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1582" t="s">
+      <c r="A78" s="2170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2173" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2174" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1583" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1584" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1585" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1586" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1587" t="s">
+      <c r="A79" s="2175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2178" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2179" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1588" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1589" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1590" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1591" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1592" t="s">
+      <c r="A80" s="2180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2183" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2184" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1593" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1594" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1595" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1596" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1597" t="s">
+      <c r="A81" s="2185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2187" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2188" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2189" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1598" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1599" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1600" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1601" t="s">
+      <c r="A82" s="2190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2192" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2193" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1602" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="1604" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1605" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1606" t="s">
+      <c r="A83" s="2194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2197" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2198" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1607" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1608" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1609" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1610" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1611" t="s">
+      <c r="A84" s="2199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2202" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2203" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1612" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="1613" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1614" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1615" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1616" t="s">
+      <c r="A85" s="2204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2207" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2208" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1617" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="1618" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1619" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1620" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="1621" t="s">
+      <c r="A86" s="2209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2212" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2213" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1622" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="1623" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1624" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1625" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1626" t="s">
+      <c r="A87" s="2214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2217" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2218" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1627" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1628" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1629" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1630" t="s">
+      <c r="A88" s="2219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2221" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2222" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1631" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1632" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1633" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1634" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1635" t="s">
+      <c r="A89" s="2223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2226" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2227" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1636" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="1637" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1638" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1639" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1640" t="s">
+      <c r="A90" s="2228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2231" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2232" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1641" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1642" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1643" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1644" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1645" t="s">
+      <c r="A91" s="2233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2236" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2237" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1646" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="1647" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1648" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1649" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1650" t="s">
+      <c r="A92" s="2238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2241" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2242" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1651" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1653" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1654" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1655" t="s">
+      <c r="A93" s="2243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2244" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2246" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2247" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1656" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1657" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1658" t="s">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1659" t="s">
+      <c r="A94" s="2248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2250" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2251" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1660" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="1661" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1662" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1663" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1664" t="s">
+      <c r="A95" s="2252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2254" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2255" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2256" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1665" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1667" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1668" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1669" t="s">
+      <c r="A96" s="2257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2259" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2260" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2261" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1670" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1672" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1673" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1674" t="s">
+      <c r="A97" s="2262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2264" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2265" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2266" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1675" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1676" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1677" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1678" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1679" t="s">
+      <c r="A98" s="2267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2270" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2271" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1680" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1681" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="1682" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1683" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1684" t="s">
+      <c r="A99" s="2272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="2273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2274" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2275" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2276" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1685" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="1686" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1687" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1688" t="s">
+      <c r="A100" s="2277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2278" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2279" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2280" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1689" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1691" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1692" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1693" t="s">
+      <c r="A101" s="2281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2283" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2284" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2285" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1694" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1696" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1697" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1698" t="s">
+      <c r="A102" s="2286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2289" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2290" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1699" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1701" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1702" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1703" t="s">
+      <c r="A103" s="2291" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2293" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2294" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2295" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1704" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1705" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1706" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1707" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1708" t="s">
+      <c r="A104" s="2296" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2298" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2299" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2300" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1709" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="1710" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1711" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1712" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1713" t="s">
+      <c r="A105" s="2301" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="2302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2303" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2305" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1714" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1715" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1716" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1717" t="s">
+      <c r="A106" s="2306" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="2307" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2308" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2309" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1718" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="1719" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1720" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1721" t="s">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1722" t="s">
+      <c r="A107" s="2310" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2312" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2313" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2314" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1723" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1724" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1725" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1726" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1727" t="s">
+      <c r="A108" s="2315" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2318" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2319" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1728" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="1729" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="1730" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1731" t="s">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1732" t="s">
+      <c r="A109" s="2320" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="2321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2322" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2323" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2324" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1733" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="1734" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="1735" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1736" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1737" t="s">
+      <c r="A110" s="2325" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="2326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2327" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2328" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2329" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1738" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="1740" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1741" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1742" t="s">
+      <c r="A111" s="2330" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2332" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2333" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2334" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1743" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="1744" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1745" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1746" t="s">
+      <c r="A112" s="2335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="2336" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2337" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2338" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1747" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="1748" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1749" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1750" t="s">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1751" t="s">
+      <c r="A113" s="2339" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="2340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2342" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2343" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1752" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="1753" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="1754" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1755" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1756" t="s">
+      <c r="A114" s="2344" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2347" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2348" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1757" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="1758" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="1759" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1760" t="s">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1761" t="s">
+      <c r="A115" s="2349" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="2350" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2352" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2353" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1762" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="1764" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1765" t="s">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1766" t="s">
+      <c r="A116" s="2354" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2355" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2356" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2357" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2358" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1767" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="1768" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="1769" t="s">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1770" t="s">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1771" t="s">
+      <c r="A117" s="2359" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="2360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="2361" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2362" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2363" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1772" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="1773" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1774" t="s">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1775" t="s">
+      <c r="A118" s="2364" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2365" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2366" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2367" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1776" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="1777" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="1778" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" s="1779" t="s">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1780" t="s">
+      <c r="A119" s="2368" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="2369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2370" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2371" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2372" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1781" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="1782" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="1783" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1784" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="1785" t="s">
+      <c r="A120" s="2373" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="2374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2375" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2376" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2377" t="s">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/TablasBingo.xlsx
+++ b/src/main/resources/TablasBingo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="11">
   <si>
     <t xml:space="preserve">Nº 1</t>
   </si>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +101,33 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="20.0"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <sz val="18.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="20.0"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <sz val="18.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="20.0"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <sz val="18.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -399,7 +426,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3401">
+  <cellXfs count="3833">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10606,6 +10633,1302 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10803,499 +12126,499 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3400" t="s">
+      <c r="A1" s="3832" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3400"/>
-      <c r="C1" s="3400"/>
-      <c r="D1" s="3400" t="s">
+      <c r="B1" s="3832"/>
+      <c r="C1" s="3832"/>
+      <c r="D1" s="3832" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3400" t="s">
+      <c r="E1" s="3832" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3399" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B2" s="3399" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="C2" s="3399" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="D2" s="3399" t="n">
+      <c r="A2" s="3831" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B2" s="3831" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C2" s="3831" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D2" s="3831" t="n">
         <v>58.0</v>
       </c>
-      <c r="E2" s="3399" t="n">
-        <v>61.0</v>
+      <c r="E2" s="3831" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3399" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B3" s="3399" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="C3" s="3399" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D3" s="3399" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E3" s="3399" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="F3" s="3267" t="s">
+      <c r="A3" s="3831" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B3" s="3831" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C3" s="3831" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D3" s="3831" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E3" s="3831" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F3" s="3699" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3399" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="3399" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="C4" s="3270" t="s">
+      <c r="A4" s="3831" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B4" s="3831" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C4" s="3702" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3399" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="E4" s="3399" t="n">
-        <v>68.0</v>
+      <c r="D4" s="3831" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E4" s="3831" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3399" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B5" s="3399" t="n">
+      <c r="A5" s="3831" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B5" s="3831" t="n">
         <v>28.0</v>
       </c>
-      <c r="C5" s="3399" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D5" s="3399" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="E5" s="3399" t="n">
-        <v>62.0</v>
+      <c r="C5" s="3831" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D5" s="3831" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E5" s="3831" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3399" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B6" s="3399" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C6" s="3399" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="D6" s="3399" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="E6" s="3399" t="n">
-        <v>67.0</v>
+      <c r="A6" s="3831" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="3831" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C6" s="3831" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D6" s="3831" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E6" s="3831" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="3400">
+      <c r="A7" t="s" s="3832">
         <v>7</v>
       </c>
-      <c r="B7" s="3400" t="s">
+      <c r="B7" s="3832" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3400" t="s">
+      <c r="C7" s="3832" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s" s="3400">
+      <c r="D7" t="s" s="3832">
         <v>5</v>
       </c>
-      <c r="E7" t="s" s="3400">
+      <c r="E7" t="s" s="3832">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="3399">
-        <v>12.0</v>
-      </c>
-      <c r="B8" t="n" s="3399">
+      <c r="A8" t="n" s="3831">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="n" s="3831">
         <v>21.0</v>
       </c>
-      <c r="C8" t="n" s="3399">
-        <v>34.0</v>
-      </c>
-      <c r="D8" t="n" s="3399">
-        <v>50.0</v>
-      </c>
-      <c r="E8" t="n" s="3399">
-        <v>68.0</v>
+      <c r="C8" t="n" s="3831">
+        <v>33.0</v>
+      </c>
+      <c r="D8" t="n" s="3831">
+        <v>59.0</v>
+      </c>
+      <c r="E8" t="n" s="3831">
+        <v>62.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="3399">
-        <v>7.0</v>
-      </c>
-      <c r="B9" t="n" s="3399">
-        <v>25.0</v>
-      </c>
-      <c r="C9" t="n" s="3399">
-        <v>36.0</v>
-      </c>
-      <c r="D9" t="n" s="3399">
-        <v>54.0</v>
-      </c>
-      <c r="E9" t="n" s="3399">
-        <v>61.0</v>
+      <c r="A9" t="n" s="3831">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="n" s="3831">
+        <v>18.0</v>
+      </c>
+      <c r="C9" t="n" s="3831">
+        <v>41.0</v>
+      </c>
+      <c r="D9" t="n" s="3831">
+        <v>57.0</v>
+      </c>
+      <c r="E9" t="n" s="3831">
+        <v>70.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="3399">
-        <v>13.0</v>
-      </c>
-      <c r="B10" t="n" s="3399">
-        <v>27.0</v>
-      </c>
-      <c r="D10" t="n" s="3399">
-        <v>59.0</v>
-      </c>
-      <c r="E10" t="n" s="3399">
-        <v>74.0</v>
+      <c r="A10" t="n" s="3831">
+        <v>1.0</v>
+      </c>
+      <c r="B10" t="n" s="3831">
+        <v>30.0</v>
+      </c>
+      <c r="D10" t="n" s="3831">
+        <v>58.0</v>
+      </c>
+      <c r="E10" t="n" s="3831">
+        <v>61.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="3399">
-        <v>15.0</v>
-      </c>
-      <c r="B11" t="n" s="3399">
-        <v>23.0</v>
-      </c>
-      <c r="C11" t="n" s="3399">
-        <v>40.0</v>
-      </c>
-      <c r="D11" t="n" s="3399">
-        <v>52.0</v>
-      </c>
-      <c r="E11" t="n" s="3399">
-        <v>75.0</v>
+      <c r="A11" t="n" s="3831">
+        <v>4.0</v>
+      </c>
+      <c r="B11" t="n" s="3831">
+        <v>27.0</v>
+      </c>
+      <c r="C11" t="n" s="3831">
+        <v>36.0</v>
+      </c>
+      <c r="D11" t="n" s="3831">
+        <v>50.0</v>
+      </c>
+      <c r="E11" t="n" s="3831">
+        <v>67.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="3399">
+      <c r="A12" t="n" s="3831">
         <v>10.0</v>
       </c>
-      <c r="B12" t="n" s="3399">
-        <v>22.0</v>
-      </c>
-      <c r="C12" t="n" s="3399">
-        <v>38.0</v>
-      </c>
-      <c r="D12" t="n" s="3399">
+      <c r="B12" t="n" s="3831">
+        <v>28.0</v>
+      </c>
+      <c r="C12" t="n" s="3831">
+        <v>44.0</v>
+      </c>
+      <c r="D12" t="n" s="3831">
         <v>55.0</v>
       </c>
-      <c r="E12" t="n" s="3399">
-        <v>73.0</v>
+      <c r="E12" t="n" s="3831">
+        <v>71.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="3400">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3400" t="s">
+      <c r="A13" t="s" s="3744">
         <v>3</v>
       </c>
-      <c r="C13" s="3400" t="s">
+      <c r="B13" s="3745" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s" s="3400">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s" s="3400">
-        <v>6</v>
+      <c r="C13" s="3746" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s" s="3747">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s" s="3748">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n" s="3399">
-        <v>10.0</v>
-      </c>
-      <c r="B14" t="n" s="3399">
-        <v>30.0</v>
-      </c>
-      <c r="C14" t="n" s="3399">
-        <v>33.0</v>
-      </c>
-      <c r="D14" t="n" s="3399">
-        <v>56.0</v>
-      </c>
-      <c r="E14" t="n" s="3399">
-        <v>63.0</v>
+      <c r="A14" t="s" s="3749">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s" s="3750">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s" s="3751">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s" s="3752">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s" s="3753">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="3399">
-        <v>5.0</v>
-      </c>
-      <c r="B15" t="n" s="3399">
-        <v>27.0</v>
-      </c>
-      <c r="C15" t="n" s="3399">
-        <v>35.0</v>
-      </c>
-      <c r="D15" t="n" s="3399">
-        <v>51.0</v>
-      </c>
-      <c r="E15" t="n" s="3399">
-        <v>73.0</v>
+      <c r="A15" t="s" s="3754">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s" s="3755">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s" s="3756">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s" s="3757">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s" s="3758">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="3399">
-        <v>11.0</v>
-      </c>
-      <c r="B16" t="n" s="3399">
-        <v>18.0</v>
-      </c>
-      <c r="D16" t="n" s="3399">
-        <v>52.0</v>
-      </c>
-      <c r="E16" t="n" s="3399">
-        <v>61.0</v>
+      <c r="A16" t="s" s="3759">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s" s="3760">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s" s="3761">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s" s="3762">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="3399">
-        <v>1.0</v>
-      </c>
-      <c r="B17" t="n" s="3399">
-        <v>25.0</v>
-      </c>
-      <c r="C17" t="n" s="3399">
-        <v>43.0</v>
-      </c>
-      <c r="D17" t="n" s="3399">
-        <v>55.0</v>
-      </c>
-      <c r="E17" t="n" s="3399">
-        <v>69.0</v>
+      <c r="A17" t="s" s="3763">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s" s="3764">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="3765">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s" s="3766">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s" s="3767">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="3399">
-        <v>7.0</v>
-      </c>
-      <c r="B18" t="n" s="3399">
-        <v>20.0</v>
-      </c>
-      <c r="C18" t="n" s="3399">
-        <v>34.0</v>
-      </c>
-      <c r="D18" t="n" s="3399">
-        <v>46.0</v>
-      </c>
-      <c r="E18" t="n" s="3399">
-        <v>75.0</v>
+      <c r="A18" t="s" s="3768">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s" s="3769">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s" s="3770">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s" s="3771">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s" s="3772">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3341">
+      <c r="A19" t="s" s="3773">
         <v>3</v>
       </c>
-      <c r="B19" s="3342" t="s">
+      <c r="B19" s="3774" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3343" t="s">
+      <c r="C19" s="3775" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s" s="3344">
+      <c r="D19" t="s" s="3776">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="3345">
+      <c r="E19" t="s" s="3777">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="3346">
+      <c r="A20" t="s" s="3778">
         <v>3</v>
       </c>
-      <c r="B20" t="s" s="3347">
+      <c r="B20" t="s" s="3779">
         <v>3</v>
       </c>
-      <c r="C20" t="s" s="3348">
+      <c r="C20" t="s" s="3780">
         <v>3</v>
       </c>
-      <c r="D20" t="s" s="3349">
+      <c r="D20" t="s" s="3781">
         <v>3</v>
       </c>
-      <c r="E20" t="s" s="3350">
+      <c r="E20" t="s" s="3782">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="3351">
+      <c r="A21" t="s" s="3783">
         <v>3</v>
       </c>
-      <c r="B21" t="s" s="3352">
+      <c r="B21" t="s" s="3784">
         <v>3</v>
       </c>
-      <c r="C21" t="s" s="3353">
+      <c r="C21" t="s" s="3785">
         <v>3</v>
       </c>
-      <c r="D21" t="s" s="3354">
+      <c r="D21" t="s" s="3786">
         <v>3</v>
       </c>
-      <c r="E21" t="s" s="3355">
+      <c r="E21" t="s" s="3787">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3356">
+      <c r="A22" t="s" s="3788">
         <v>3</v>
       </c>
-      <c r="B22" t="s" s="3357">
+      <c r="B22" t="s" s="3789">
         <v>3</v>
       </c>
-      <c r="D22" t="s" s="3358">
+      <c r="D22" t="s" s="3790">
         <v>3</v>
       </c>
-      <c r="E22" t="s" s="3359">
+      <c r="E22" t="s" s="3791">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="3360">
+      <c r="A23" t="s" s="3792">
         <v>3</v>
       </c>
-      <c r="B23" t="s" s="3361">
+      <c r="B23" t="s" s="3793">
         <v>3</v>
       </c>
-      <c r="C23" t="s" s="3362">
+      <c r="C23" t="s" s="3794">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="3363">
+      <c r="D23" t="s" s="3795">
         <v>3</v>
       </c>
-      <c r="E23" t="s" s="3364">
+      <c r="E23" t="s" s="3796">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3365">
+      <c r="A24" t="s" s="3797">
         <v>3</v>
       </c>
-      <c r="B24" t="s" s="3366">
+      <c r="B24" t="s" s="3798">
         <v>3</v>
       </c>
-      <c r="C24" t="s" s="3367">
+      <c r="C24" t="s" s="3799">
         <v>3</v>
       </c>
-      <c r="D24" t="s" s="3368">
+      <c r="D24" t="s" s="3800">
         <v>3</v>
       </c>
-      <c r="E24" t="s" s="3369">
+      <c r="E24" t="s" s="3801">
         <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3370">
+      <c r="A25" t="s" s="3802">
         <v>3</v>
       </c>
-      <c r="B25" s="3371" t="s">
+      <c r="B25" s="3803" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3372" t="s">
+      <c r="C25" s="3804" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s" s="3373">
+      <c r="D25" t="s" s="3805">
         <v>3</v>
       </c>
-      <c r="E25" t="s" s="3374">
+      <c r="E25" t="s" s="3806">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="3375">
+      <c r="A26" t="s" s="3807">
         <v>3</v>
       </c>
-      <c r="B26" t="s" s="3376">
+      <c r="B26" t="s" s="3808">
         <v>3</v>
       </c>
-      <c r="C26" t="s" s="3377">
+      <c r="C26" t="s" s="3809">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="3378">
+      <c r="D26" t="s" s="3810">
         <v>3</v>
       </c>
-      <c r="E26" t="s" s="3379">
+      <c r="E26" t="s" s="3811">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="3380">
+      <c r="A27" t="s" s="3812">
         <v>3</v>
       </c>
-      <c r="B27" t="s" s="3381">
+      <c r="B27" t="s" s="3813">
         <v>3</v>
       </c>
-      <c r="C27" t="s" s="3382">
+      <c r="C27" t="s" s="3814">
         <v>3</v>
       </c>
-      <c r="D27" t="s" s="3383">
+      <c r="D27" t="s" s="3815">
         <v>3</v>
       </c>
-      <c r="E27" t="s" s="3384">
+      <c r="E27" t="s" s="3816">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="3385">
+      <c r="A28" t="s" s="3817">
         <v>3</v>
       </c>
-      <c r="B28" t="s" s="3386">
+      <c r="B28" t="s" s="3818">
         <v>3</v>
       </c>
-      <c r="D28" t="s" s="3387">
+      <c r="D28" t="s" s="3819">
         <v>3</v>
       </c>
-      <c r="E28" t="s" s="3388">
+      <c r="E28" t="s" s="3820">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3389">
+      <c r="A29" t="s" s="3821">
         <v>3</v>
       </c>
-      <c r="B29" t="s" s="3390">
+      <c r="B29" t="s" s="3822">
         <v>3</v>
       </c>
-      <c r="C29" t="s" s="3391">
+      <c r="C29" t="s" s="3823">
         <v>3</v>
       </c>
-      <c r="D29" t="s" s="3392">
+      <c r="D29" t="s" s="3824">
         <v>3</v>
       </c>
-      <c r="E29" t="s" s="3393">
+      <c r="E29" t="s" s="3825">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3394">
+      <c r="A30" t="s" s="3826">
         <v>3</v>
       </c>
-      <c r="B30" t="s" s="3395">
+      <c r="B30" t="s" s="3827">
         <v>3</v>
       </c>
-      <c r="C30" t="s" s="3396">
+      <c r="C30" t="s" s="3828">
         <v>3</v>
       </c>
-      <c r="D30" t="s" s="3397">
+      <c r="D30" t="s" s="3829">
         <v>3</v>
       </c>
-      <c r="E30" t="s" s="3398">
+      <c r="E30" t="s" s="3830">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/TablasBingo.xlsx
+++ b/src/main/resources/TablasBingo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="11">
   <si>
     <t xml:space="preserve">Nº 1</t>
   </si>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="67">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +101,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="20.0"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <sz val="18.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -426,7 +435,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3833">
+  <cellXfs count="3977">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11929,6 +11938,438 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12126,499 +12567,499 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3832" t="s">
+      <c r="A1" s="3976" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3832"/>
-      <c r="C1" s="3832"/>
-      <c r="D1" s="3832" t="s">
+      <c r="B1" s="3976"/>
+      <c r="C1" s="3976"/>
+      <c r="D1" s="3976" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3832" t="s">
+      <c r="E1" s="3976" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3831" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B2" s="3831" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="C2" s="3831" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="D2" s="3831" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="E2" s="3831" t="n">
-        <v>64.0</v>
+      <c r="A2" s="3975" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B2" s="3975" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C2" s="3975" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D2" s="3975" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E2" s="3975" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3831" t="n">
+      <c r="A3" s="3975" t="n">
         <v>15.0</v>
       </c>
-      <c r="B3" s="3831" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C3" s="3831" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="D3" s="3831" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="E3" s="3831" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="F3" s="3699" t="s">
+      <c r="B3" s="3975" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C3" s="3975" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D3" s="3975" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E3" s="3975" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F3" s="3843" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3831" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B4" s="3831" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="C4" s="3702" t="s">
+      <c r="A4" s="3975" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B4" s="3975" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C4" s="3846" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3831" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="E4" s="3831" t="n">
-        <v>74.0</v>
+      <c r="D4" s="3975" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E4" s="3975" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3831" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B5" s="3831" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="C5" s="3831" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="D5" s="3831" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="E5" s="3831" t="n">
-        <v>75.0</v>
+      <c r="A5" s="3975" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="3975" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C5" s="3975" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D5" s="3975" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E5" s="3975" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3831" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="3831" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="C6" s="3831" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D6" s="3831" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="E6" s="3831" t="n">
-        <v>71.0</v>
+      <c r="A6" s="3975" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B6" s="3975" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C6" s="3975" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D6" s="3975" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E6" s="3975" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="3832">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3832" t="s">
+      <c r="A7" t="s" s="3859">
         <v>3</v>
       </c>
-      <c r="C7" s="3832" t="s">
+      <c r="B7" s="3860" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s" s="3832">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s" s="3832">
-        <v>6</v>
+      <c r="C7" s="3861" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s" s="3862">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="3863">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="3831">
-        <v>8.0</v>
-      </c>
-      <c r="B8" t="n" s="3831">
-        <v>21.0</v>
-      </c>
-      <c r="C8" t="n" s="3831">
-        <v>33.0</v>
-      </c>
-      <c r="D8" t="n" s="3831">
-        <v>59.0</v>
-      </c>
-      <c r="E8" t="n" s="3831">
-        <v>62.0</v>
+      <c r="A8" t="s" s="3864">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s" s="3865">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s" s="3866">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s" s="3867">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s" s="3868">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="3831">
-        <v>2.0</v>
-      </c>
-      <c r="B9" t="n" s="3831">
-        <v>18.0</v>
-      </c>
-      <c r="C9" t="n" s="3831">
-        <v>41.0</v>
-      </c>
-      <c r="D9" t="n" s="3831">
-        <v>57.0</v>
-      </c>
-      <c r="E9" t="n" s="3831">
-        <v>70.0</v>
+      <c r="A9" t="s" s="3869">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s" s="3870">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s" s="3871">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s" s="3872">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="3873">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="3831">
-        <v>1.0</v>
-      </c>
-      <c r="B10" t="n" s="3831">
-        <v>30.0</v>
-      </c>
-      <c r="D10" t="n" s="3831">
-        <v>58.0</v>
-      </c>
-      <c r="E10" t="n" s="3831">
-        <v>61.0</v>
+      <c r="A10" t="s" s="3874">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="3875">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s" s="3876">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="3877">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="3831">
-        <v>4.0</v>
-      </c>
-      <c r="B11" t="n" s="3831">
-        <v>27.0</v>
-      </c>
-      <c r="C11" t="n" s="3831">
-        <v>36.0</v>
-      </c>
-      <c r="D11" t="n" s="3831">
-        <v>50.0</v>
-      </c>
-      <c r="E11" t="n" s="3831">
-        <v>67.0</v>
+      <c r="A11" t="s" s="3878">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" s="3879">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="3880">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s" s="3881">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s" s="3882">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="3831">
-        <v>10.0</v>
-      </c>
-      <c r="B12" t="n" s="3831">
-        <v>28.0</v>
-      </c>
-      <c r="C12" t="n" s="3831">
-        <v>44.0</v>
-      </c>
-      <c r="D12" t="n" s="3831">
-        <v>55.0</v>
-      </c>
-      <c r="E12" t="n" s="3831">
-        <v>71.0</v>
+      <c r="A12" t="s" s="3883">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s" s="3884">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s" s="3885">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s" s="3886">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s" s="3887">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="3744">
+      <c r="A13" t="s" s="3888">
         <v>3</v>
       </c>
-      <c r="B13" s="3745" t="s">
+      <c r="B13" s="3889" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3746" t="s">
+      <c r="C13" s="3890" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s" s="3747">
+      <c r="D13" t="s" s="3891">
         <v>3</v>
       </c>
-      <c r="E13" t="s" s="3748">
+      <c r="E13" t="s" s="3892">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3749">
+      <c r="A14" t="s" s="3893">
         <v>3</v>
       </c>
-      <c r="B14" t="s" s="3750">
+      <c r="B14" t="s" s="3894">
         <v>3</v>
       </c>
-      <c r="C14" t="s" s="3751">
+      <c r="C14" t="s" s="3895">
         <v>3</v>
       </c>
-      <c r="D14" t="s" s="3752">
+      <c r="D14" t="s" s="3896">
         <v>3</v>
       </c>
-      <c r="E14" t="s" s="3753">
+      <c r="E14" t="s" s="3897">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="3754">
+      <c r="A15" t="s" s="3898">
         <v>3</v>
       </c>
-      <c r="B15" t="s" s="3755">
+      <c r="B15" t="s" s="3899">
         <v>3</v>
       </c>
-      <c r="C15" t="s" s="3756">
+      <c r="C15" t="s" s="3900">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="3757">
+      <c r="D15" t="s" s="3901">
         <v>3</v>
       </c>
-      <c r="E15" t="s" s="3758">
+      <c r="E15" t="s" s="3902">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="3759">
+      <c r="A16" t="s" s="3903">
         <v>3</v>
       </c>
-      <c r="B16" t="s" s="3760">
+      <c r="B16" t="s" s="3904">
         <v>3</v>
       </c>
-      <c r="D16" t="s" s="3761">
+      <c r="D16" t="s" s="3905">
         <v>3</v>
       </c>
-      <c r="E16" t="s" s="3762">
+      <c r="E16" t="s" s="3906">
         <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3763">
+      <c r="A17" t="s" s="3907">
         <v>3</v>
       </c>
-      <c r="B17" t="s" s="3764">
+      <c r="B17" t="s" s="3908">
         <v>3</v>
       </c>
-      <c r="C17" t="s" s="3765">
+      <c r="C17" t="s" s="3909">
         <v>3</v>
       </c>
-      <c r="D17" t="s" s="3766">
+      <c r="D17" t="s" s="3910">
         <v>3</v>
       </c>
-      <c r="E17" t="s" s="3767">
+      <c r="E17" t="s" s="3911">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="3768">
+      <c r="A18" t="s" s="3912">
         <v>3</v>
       </c>
-      <c r="B18" t="s" s="3769">
+      <c r="B18" t="s" s="3913">
         <v>3</v>
       </c>
-      <c r="C18" t="s" s="3770">
+      <c r="C18" t="s" s="3914">
         <v>3</v>
       </c>
-      <c r="D18" t="s" s="3771">
+      <c r="D18" t="s" s="3915">
         <v>3</v>
       </c>
-      <c r="E18" t="s" s="3772">
+      <c r="E18" t="s" s="3916">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3773">
+      <c r="A19" t="s" s="3917">
         <v>3</v>
       </c>
-      <c r="B19" s="3774" t="s">
+      <c r="B19" s="3918" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3775" t="s">
+      <c r="C19" s="3919" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s" s="3776">
+      <c r="D19" t="s" s="3920">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="3777">
+      <c r="E19" t="s" s="3921">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="3778">
+      <c r="A20" t="s" s="3922">
         <v>3</v>
       </c>
-      <c r="B20" t="s" s="3779">
+      <c r="B20" t="s" s="3923">
         <v>3</v>
       </c>
-      <c r="C20" t="s" s="3780">
+      <c r="C20" t="s" s="3924">
         <v>3</v>
       </c>
-      <c r="D20" t="s" s="3781">
+      <c r="D20" t="s" s="3925">
         <v>3</v>
       </c>
-      <c r="E20" t="s" s="3782">
+      <c r="E20" t="s" s="3926">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="3783">
+      <c r="A21" t="s" s="3927">
         <v>3</v>
       </c>
-      <c r="B21" t="s" s="3784">
+      <c r="B21" t="s" s="3928">
         <v>3</v>
       </c>
-      <c r="C21" t="s" s="3785">
+      <c r="C21" t="s" s="3929">
         <v>3</v>
       </c>
-      <c r="D21" t="s" s="3786">
+      <c r="D21" t="s" s="3930">
         <v>3</v>
       </c>
-      <c r="E21" t="s" s="3787">
+      <c r="E21" t="s" s="3931">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3788">
+      <c r="A22" t="s" s="3932">
         <v>3</v>
       </c>
-      <c r="B22" t="s" s="3789">
+      <c r="B22" t="s" s="3933">
         <v>3</v>
       </c>
-      <c r="D22" t="s" s="3790">
+      <c r="D22" t="s" s="3934">
         <v>3</v>
       </c>
-      <c r="E22" t="s" s="3791">
+      <c r="E22" t="s" s="3935">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="3792">
+      <c r="A23" t="s" s="3936">
         <v>3</v>
       </c>
-      <c r="B23" t="s" s="3793">
+      <c r="B23" t="s" s="3937">
         <v>3</v>
       </c>
-      <c r="C23" t="s" s="3794">
+      <c r="C23" t="s" s="3938">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="3795">
+      <c r="D23" t="s" s="3939">
         <v>3</v>
       </c>
-      <c r="E23" t="s" s="3796">
+      <c r="E23" t="s" s="3940">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3797">
+      <c r="A24" t="s" s="3941">
         <v>3</v>
       </c>
-      <c r="B24" t="s" s="3798">
+      <c r="B24" t="s" s="3942">
         <v>3</v>
       </c>
-      <c r="C24" t="s" s="3799">
+      <c r="C24" t="s" s="3943">
         <v>3</v>
       </c>
-      <c r="D24" t="s" s="3800">
+      <c r="D24" t="s" s="3944">
         <v>3</v>
       </c>
-      <c r="E24" t="s" s="3801">
+      <c r="E24" t="s" s="3945">
         <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3802">
+      <c r="A25" t="s" s="3946">
         <v>3</v>
       </c>
-      <c r="B25" s="3803" t="s">
+      <c r="B25" s="3947" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3804" t="s">
+      <c r="C25" s="3948" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s" s="3805">
+      <c r="D25" t="s" s="3949">
         <v>3</v>
       </c>
-      <c r="E25" t="s" s="3806">
+      <c r="E25" t="s" s="3950">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="3807">
+      <c r="A26" t="s" s="3951">
         <v>3</v>
       </c>
-      <c r="B26" t="s" s="3808">
+      <c r="B26" t="s" s="3952">
         <v>3</v>
       </c>
-      <c r="C26" t="s" s="3809">
+      <c r="C26" t="s" s="3953">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="3810">
+      <c r="D26" t="s" s="3954">
         <v>3</v>
       </c>
-      <c r="E26" t="s" s="3811">
+      <c r="E26" t="s" s="3955">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="3812">
+      <c r="A27" t="s" s="3956">
         <v>3</v>
       </c>
-      <c r="B27" t="s" s="3813">
+      <c r="B27" t="s" s="3957">
         <v>3</v>
       </c>
-      <c r="C27" t="s" s="3814">
+      <c r="C27" t="s" s="3958">
         <v>3</v>
       </c>
-      <c r="D27" t="s" s="3815">
+      <c r="D27" t="s" s="3959">
         <v>3</v>
       </c>
-      <c r="E27" t="s" s="3816">
+      <c r="E27" t="s" s="3960">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="3817">
+      <c r="A28" t="s" s="3961">
         <v>3</v>
       </c>
-      <c r="B28" t="s" s="3818">
+      <c r="B28" t="s" s="3962">
         <v>3</v>
       </c>
-      <c r="D28" t="s" s="3819">
+      <c r="D28" t="s" s="3963">
         <v>3</v>
       </c>
-      <c r="E28" t="s" s="3820">
+      <c r="E28" t="s" s="3964">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3821">
+      <c r="A29" t="s" s="3965">
         <v>3</v>
       </c>
-      <c r="B29" t="s" s="3822">
+      <c r="B29" t="s" s="3966">
         <v>3</v>
       </c>
-      <c r="C29" t="s" s="3823">
+      <c r="C29" t="s" s="3967">
         <v>3</v>
       </c>
-      <c r="D29" t="s" s="3824">
+      <c r="D29" t="s" s="3968">
         <v>3</v>
       </c>
-      <c r="E29" t="s" s="3825">
+      <c r="E29" t="s" s="3969">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3826">
+      <c r="A30" t="s" s="3970">
         <v>3</v>
       </c>
-      <c r="B30" t="s" s="3827">
+      <c r="B30" t="s" s="3971">
         <v>3</v>
       </c>
-      <c r="C30" t="s" s="3828">
+      <c r="C30" t="s" s="3972">
         <v>3</v>
       </c>
-      <c r="D30" t="s" s="3829">
+      <c r="D30" t="s" s="3973">
         <v>3</v>
       </c>
-      <c r="E30" t="s" s="3830">
+      <c r="E30" t="s" s="3974">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/TablasBingo.xlsx
+++ b/src/main/resources/TablasBingo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="11">
   <si>
     <t xml:space="preserve">Nº 1</t>
   </si>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="69">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +101,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="20.0"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <sz val="18.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -435,7 +444,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3977">
+  <cellXfs count="4121">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12370,6 +12379,438 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12567,499 +13008,499 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3976" t="s">
+      <c r="A1" s="4120" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3976"/>
-      <c r="C1" s="3976"/>
-      <c r="D1" s="3976" t="s">
+      <c r="B1" s="4120"/>
+      <c r="C1" s="4120"/>
+      <c r="D1" s="4120" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3976" t="s">
+      <c r="E1" s="4120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3975" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B2" s="3975" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C2" s="3975" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="D2" s="3975" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="E2" s="3975" t="n">
-        <v>70.0</v>
+      <c r="A2" s="4119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4119" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C2" s="4119" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D2" s="4119" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E2" s="4119" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3975" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B3" s="3975" t="n">
+      <c r="A3" s="4119" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B3" s="4119" t="n">
         <v>26.0</v>
       </c>
-      <c r="C3" s="3975" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="D3" s="3975" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="E3" s="3975" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="F3" s="3843" t="s">
+      <c r="C3" s="4119" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D3" s="4119" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E3" s="4119" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="F3" s="3987" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3975" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B4" s="3975" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C4" s="3846" t="s">
+      <c r="A4" s="4119" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B4" s="4119" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C4" s="3990" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3975" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="E4" s="3975" t="n">
-        <v>65.0</v>
+      <c r="D4" s="4119" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E4" s="4119" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3975" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="3975" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="C5" s="3975" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="D5" s="3975" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="E5" s="3975" t="n">
-        <v>69.0</v>
+      <c r="A5" s="4119" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B5" s="4119" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C5" s="4119" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D5" s="4119" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="E5" s="4119" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3975" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B6" s="3975" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="C6" s="3975" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="D6" s="3975" t="n">
+      <c r="A6" s="4119" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="4119" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C6" s="4119" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D6" s="4119" t="n">
         <v>51.0</v>
       </c>
-      <c r="E6" s="3975" t="n">
-        <v>66.0</v>
+      <c r="E6" s="4119" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="3859">
+      <c r="A7" t="s" s="4003">
         <v>3</v>
       </c>
-      <c r="B7" s="3860" t="s">
+      <c r="B7" s="4004" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3861" t="s">
+      <c r="C7" s="4005" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s" s="3862">
+      <c r="D7" t="s" s="4006">
         <v>3</v>
       </c>
-      <c r="E7" t="s" s="3863">
+      <c r="E7" t="s" s="4007">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="3864">
+      <c r="A8" t="s" s="4008">
         <v>3</v>
       </c>
-      <c r="B8" t="s" s="3865">
+      <c r="B8" t="s" s="4009">
         <v>3</v>
       </c>
-      <c r="C8" t="s" s="3866">
+      <c r="C8" t="s" s="4010">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="3867">
+      <c r="D8" t="s" s="4011">
         <v>3</v>
       </c>
-      <c r="E8" t="s" s="3868">
+      <c r="E8" t="s" s="4012">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3869">
+      <c r="A9" t="s" s="4013">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="3870">
+      <c r="B9" t="s" s="4014">
         <v>3</v>
       </c>
-      <c r="C9" t="s" s="3871">
+      <c r="C9" t="s" s="4015">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="3872">
+      <c r="D9" t="s" s="4016">
         <v>3</v>
       </c>
-      <c r="E9" t="s" s="3873">
+      <c r="E9" t="s" s="4017">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3874">
+      <c r="A10" t="s" s="4018">
         <v>3</v>
       </c>
-      <c r="B10" t="s" s="3875">
+      <c r="B10" t="s" s="4019">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="3876">
+      <c r="D10" t="s" s="4020">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="3877">
+      <c r="E10" t="s" s="4021">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="3878">
+      <c r="A11" t="s" s="4022">
         <v>3</v>
       </c>
-      <c r="B11" t="s" s="3879">
+      <c r="B11" t="s" s="4023">
         <v>3</v>
       </c>
-      <c r="C11" t="s" s="3880">
+      <c r="C11" t="s" s="4024">
         <v>3</v>
       </c>
-      <c r="D11" t="s" s="3881">
+      <c r="D11" t="s" s="4025">
         <v>3</v>
       </c>
-      <c r="E11" t="s" s="3882">
+      <c r="E11" t="s" s="4026">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3883">
+      <c r="A12" t="s" s="4027">
         <v>3</v>
       </c>
-      <c r="B12" t="s" s="3884">
+      <c r="B12" t="s" s="4028">
         <v>3</v>
       </c>
-      <c r="C12" t="s" s="3885">
+      <c r="C12" t="s" s="4029">
         <v>3</v>
       </c>
-      <c r="D12" t="s" s="3886">
+      <c r="D12" t="s" s="4030">
         <v>3</v>
       </c>
-      <c r="E12" t="s" s="3887">
+      <c r="E12" t="s" s="4031">
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="3888">
+      <c r="A13" t="s" s="4032">
         <v>3</v>
       </c>
-      <c r="B13" s="3889" t="s">
+      <c r="B13" s="4033" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3890" t="s">
+      <c r="C13" s="4034" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s" s="3891">
+      <c r="D13" t="s" s="4035">
         <v>3</v>
       </c>
-      <c r="E13" t="s" s="3892">
+      <c r="E13" t="s" s="4036">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3893">
+      <c r="A14" t="s" s="4037">
         <v>3</v>
       </c>
-      <c r="B14" t="s" s="3894">
+      <c r="B14" t="s" s="4038">
         <v>3</v>
       </c>
-      <c r="C14" t="s" s="3895">
+      <c r="C14" t="s" s="4039">
         <v>3</v>
       </c>
-      <c r="D14" t="s" s="3896">
+      <c r="D14" t="s" s="4040">
         <v>3</v>
       </c>
-      <c r="E14" t="s" s="3897">
+      <c r="E14" t="s" s="4041">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="3898">
+      <c r="A15" t="s" s="4042">
         <v>3</v>
       </c>
-      <c r="B15" t="s" s="3899">
+      <c r="B15" t="s" s="4043">
         <v>3</v>
       </c>
-      <c r="C15" t="s" s="3900">
+      <c r="C15" t="s" s="4044">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="3901">
+      <c r="D15" t="s" s="4045">
         <v>3</v>
       </c>
-      <c r="E15" t="s" s="3902">
+      <c r="E15" t="s" s="4046">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="3903">
+      <c r="A16" t="s" s="4047">
         <v>3</v>
       </c>
-      <c r="B16" t="s" s="3904">
+      <c r="B16" t="s" s="4048">
         <v>3</v>
       </c>
-      <c r="D16" t="s" s="3905">
+      <c r="D16" t="s" s="4049">
         <v>3</v>
       </c>
-      <c r="E16" t="s" s="3906">
+      <c r="E16" t="s" s="4050">
         <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3907">
+      <c r="A17" t="s" s="4051">
         <v>3</v>
       </c>
-      <c r="B17" t="s" s="3908">
+      <c r="B17" t="s" s="4052">
         <v>3</v>
       </c>
-      <c r="C17" t="s" s="3909">
+      <c r="C17" t="s" s="4053">
         <v>3</v>
       </c>
-      <c r="D17" t="s" s="3910">
+      <c r="D17" t="s" s="4054">
         <v>3</v>
       </c>
-      <c r="E17" t="s" s="3911">
+      <c r="E17" t="s" s="4055">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="3912">
+      <c r="A18" t="s" s="4056">
         <v>3</v>
       </c>
-      <c r="B18" t="s" s="3913">
+      <c r="B18" t="s" s="4057">
         <v>3</v>
       </c>
-      <c r="C18" t="s" s="3914">
+      <c r="C18" t="s" s="4058">
         <v>3</v>
       </c>
-      <c r="D18" t="s" s="3915">
+      <c r="D18" t="s" s="4059">
         <v>3</v>
       </c>
-      <c r="E18" t="s" s="3916">
+      <c r="E18" t="s" s="4060">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3917">
+      <c r="A19" t="s" s="4061">
         <v>3</v>
       </c>
-      <c r="B19" s="3918" t="s">
+      <c r="B19" s="4062" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3919" t="s">
+      <c r="C19" s="4063" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s" s="3920">
+      <c r="D19" t="s" s="4064">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="3921">
+      <c r="E19" t="s" s="4065">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="3922">
+      <c r="A20" t="s" s="4066">
         <v>3</v>
       </c>
-      <c r="B20" t="s" s="3923">
+      <c r="B20" t="s" s="4067">
         <v>3</v>
       </c>
-      <c r="C20" t="s" s="3924">
+      <c r="C20" t="s" s="4068">
         <v>3</v>
       </c>
-      <c r="D20" t="s" s="3925">
+      <c r="D20" t="s" s="4069">
         <v>3</v>
       </c>
-      <c r="E20" t="s" s="3926">
+      <c r="E20" t="s" s="4070">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="3927">
+      <c r="A21" t="s" s="4071">
         <v>3</v>
       </c>
-      <c r="B21" t="s" s="3928">
+      <c r="B21" t="s" s="4072">
         <v>3</v>
       </c>
-      <c r="C21" t="s" s="3929">
+      <c r="C21" t="s" s="4073">
         <v>3</v>
       </c>
-      <c r="D21" t="s" s="3930">
+      <c r="D21" t="s" s="4074">
         <v>3</v>
       </c>
-      <c r="E21" t="s" s="3931">
+      <c r="E21" t="s" s="4075">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3932">
+      <c r="A22" t="s" s="4076">
         <v>3</v>
       </c>
-      <c r="B22" t="s" s="3933">
+      <c r="B22" t="s" s="4077">
         <v>3</v>
       </c>
-      <c r="D22" t="s" s="3934">
+      <c r="D22" t="s" s="4078">
         <v>3</v>
       </c>
-      <c r="E22" t="s" s="3935">
+      <c r="E22" t="s" s="4079">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="3936">
+      <c r="A23" t="s" s="4080">
         <v>3</v>
       </c>
-      <c r="B23" t="s" s="3937">
+      <c r="B23" t="s" s="4081">
         <v>3</v>
       </c>
-      <c r="C23" t="s" s="3938">
+      <c r="C23" t="s" s="4082">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="3939">
+      <c r="D23" t="s" s="4083">
         <v>3</v>
       </c>
-      <c r="E23" t="s" s="3940">
+      <c r="E23" t="s" s="4084">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3941">
+      <c r="A24" t="s" s="4085">
         <v>3</v>
       </c>
-      <c r="B24" t="s" s="3942">
+      <c r="B24" t="s" s="4086">
         <v>3</v>
       </c>
-      <c r="C24" t="s" s="3943">
+      <c r="C24" t="s" s="4087">
         <v>3</v>
       </c>
-      <c r="D24" t="s" s="3944">
+      <c r="D24" t="s" s="4088">
         <v>3</v>
       </c>
-      <c r="E24" t="s" s="3945">
+      <c r="E24" t="s" s="4089">
         <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3946">
+      <c r="A25" t="s" s="4090">
         <v>3</v>
       </c>
-      <c r="B25" s="3947" t="s">
+      <c r="B25" s="4091" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3948" t="s">
+      <c r="C25" s="4092" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s" s="3949">
+      <c r="D25" t="s" s="4093">
         <v>3</v>
       </c>
-      <c r="E25" t="s" s="3950">
+      <c r="E25" t="s" s="4094">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="3951">
+      <c r="A26" t="s" s="4095">
         <v>3</v>
       </c>
-      <c r="B26" t="s" s="3952">
+      <c r="B26" t="s" s="4096">
         <v>3</v>
       </c>
-      <c r="C26" t="s" s="3953">
+      <c r="C26" t="s" s="4097">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="3954">
+      <c r="D26" t="s" s="4098">
         <v>3</v>
       </c>
-      <c r="E26" t="s" s="3955">
+      <c r="E26" t="s" s="4099">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="3956">
+      <c r="A27" t="s" s="4100">
         <v>3</v>
       </c>
-      <c r="B27" t="s" s="3957">
+      <c r="B27" t="s" s="4101">
         <v>3</v>
       </c>
-      <c r="C27" t="s" s="3958">
+      <c r="C27" t="s" s="4102">
         <v>3</v>
       </c>
-      <c r="D27" t="s" s="3959">
+      <c r="D27" t="s" s="4103">
         <v>3</v>
       </c>
-      <c r="E27" t="s" s="3960">
+      <c r="E27" t="s" s="4104">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="3961">
+      <c r="A28" t="s" s="4105">
         <v>3</v>
       </c>
-      <c r="B28" t="s" s="3962">
+      <c r="B28" t="s" s="4106">
         <v>3</v>
       </c>
-      <c r="D28" t="s" s="3963">
+      <c r="D28" t="s" s="4107">
         <v>3</v>
       </c>
-      <c r="E28" t="s" s="3964">
+      <c r="E28" t="s" s="4108">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3965">
+      <c r="A29" t="s" s="4109">
         <v>3</v>
       </c>
-      <c r="B29" t="s" s="3966">
+      <c r="B29" t="s" s="4110">
         <v>3</v>
       </c>
-      <c r="C29" t="s" s="3967">
+      <c r="C29" t="s" s="4111">
         <v>3</v>
       </c>
-      <c r="D29" t="s" s="3968">
+      <c r="D29" t="s" s="4112">
         <v>3</v>
       </c>
-      <c r="E29" t="s" s="3969">
+      <c r="E29" t="s" s="4113">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3970">
+      <c r="A30" t="s" s="4114">
         <v>3</v>
       </c>
-      <c r="B30" t="s" s="3971">
+      <c r="B30" t="s" s="4115">
         <v>3</v>
       </c>
-      <c r="C30" t="s" s="3972">
+      <c r="C30" t="s" s="4116">
         <v>3</v>
       </c>
-      <c r="D30" t="s" s="3973">
+      <c r="D30" t="s" s="4117">
         <v>3</v>
       </c>
-      <c r="E30" t="s" s="3974">
+      <c r="E30" t="s" s="4118">
         <v>3</v>
       </c>
     </row>
